--- a/virginia/data/va_plants.xlsx
+++ b/virginia/data/va_plants.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rogerzhu/Documents/temoa/temoa-va/virginia/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256AE76C-224F-BE47-9AE2-D9336822BA1B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CA82F1-B032-D94D-BF79-E4FEC80FFAC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{7DD211FA-1000-1E4D-A47C-187B2EE1A047}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="91">
   <si>
     <t>Altavista Power Station</t>
   </si>
@@ -159,9 +159,6 @@
     <t>Natural gas</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>Bear Garden</t>
   </si>
   <si>
@@ -298,6 +295,9 @@
   </si>
   <si>
     <t>Offline</t>
+  </si>
+  <si>
+    <t>Greensville</t>
   </si>
 </sst>
 </file>
@@ -649,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{678C6937-9611-D047-85FB-08AB37E19FDA}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C17" sqref="C16:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -662,19 +662,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>86</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" t="s">
         <v>87</v>
-      </c>
-      <c r="D1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -764,7 +764,7 @@
         <v>717</v>
       </c>
       <c r="F7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -809,7 +809,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -837,7 +837,10 @@
         <v>25</v>
       </c>
       <c r="E12" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="F12">
+        <v>1992</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -854,7 +857,7 @@
         <v>1141</v>
       </c>
       <c r="F13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -940,13 +943,10 @@
       <c r="E19">
         <v>6.4</v>
       </c>
-      <c r="F19" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
@@ -954,10 +954,13 @@
       <c r="E20">
         <v>559</v>
       </c>
+      <c r="F20">
+        <v>2011</v>
+      </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
         <v>43</v>
@@ -965,10 +968,13 @@
       <c r="E21">
         <v>1472</v>
       </c>
+      <c r="F21">
+        <v>2016</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
         <v>43</v>
@@ -976,10 +982,13 @@
       <c r="E22">
         <v>368</v>
       </c>
+      <c r="F22">
+        <v>1990</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
         <v>43</v>
@@ -990,7 +999,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
         <v>43</v>
@@ -998,10 +1007,13 @@
       <c r="E24">
         <v>389</v>
       </c>
+      <c r="F24">
+        <v>1992</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>43</v>
@@ -1009,10 +1021,13 @@
       <c r="E25">
         <v>300</v>
       </c>
+      <c r="F25">
+        <v>1994</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>43</v>
@@ -1023,7 +1038,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>43</v>
@@ -1031,10 +1046,13 @@
       <c r="E27">
         <v>893</v>
       </c>
+      <c r="F27">
+        <v>2001</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>43</v>
@@ -1045,7 +1063,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -1053,10 +1071,13 @@
       <c r="E29">
         <v>706</v>
       </c>
+      <c r="F29">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>43</v>
@@ -1067,61 +1088,61 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="C31" t="s">
         <v>43</v>
       </c>
       <c r="E31">
-        <v>1472</v>
+        <v>1588</v>
+      </c>
+      <c r="F31">
+        <v>2018</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E32">
-        <v>778</v>
-      </c>
-      <c r="F32" t="s">
-        <v>60</v>
+        <v>1472</v>
+      </c>
+      <c r="F32">
+        <v>2014</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E33">
-        <v>227</v>
+        <v>778</v>
       </c>
       <c r="F33" t="s">
-        <v>7</v>
+        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E34">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="F34" t="s">
         <v>7</v>
@@ -1129,92 +1150,112 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E35">
-        <v>1661</v>
+        <v>267</v>
+      </c>
+      <c r="F35" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36">
-        <v>48</v>
+        <v>1661</v>
+      </c>
+      <c r="F36">
+        <v>2003</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E37">
-        <v>1790</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>1678</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E39">
-        <v>23</v>
-      </c>
-      <c r="F39" t="s">
-        <v>79</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41">
+        <v>95</v>
+      </c>
+      <c r="F41" t="s">
         <v>80</v>
-      </c>
-      <c r="B40" t="s">
-        <v>42</v>
-      </c>
-      <c r="C40" t="s">
-        <v>78</v>
-      </c>
-      <c r="E40">
-        <v>95</v>
-      </c>
-      <c r="F40" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
